--- a/data/trans_dic/P1435_2011_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1435_2011_2023-Clase-trans_dic.xlsx
@@ -618,13 +618,13 @@
         <v>0.03918656926266177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09409055323125247</v>
+        <v>0.09409055323125248</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01777237652118633</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.05450413503371228</v>
+        <v>0.05450413503371227</v>
       </c>
     </row>
     <row r="5">
@@ -638,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01032911758559503</v>
+        <v>0.01020587942582075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02001070184382059</v>
+        <v>0.02002371357609344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07232153785676934</v>
+        <v>0.07055859264101461</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009408640236627804</v>
+        <v>0.009590545139921301</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04298085421100531</v>
+        <v>0.04240288227297234</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01229294311017641</v>
+        <v>0.01564620712637561</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03554899262728767</v>
+        <v>0.03589831183392952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07149557891820991</v>
+        <v>0.07597452536966094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.118895438778211</v>
+        <v>0.1195131638823991</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02970723832407058</v>
+        <v>0.0318548001265288</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06919856961139685</v>
+        <v>0.06912982760486837</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         <v>0.006820715019645976</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01995086777589746</v>
+        <v>0.01995086777589745</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03561011013901817</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08671210017389804</v>
+        <v>0.08671210017389802</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01967884329875505</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0510616777042875</v>
+        <v>0.05106167770428749</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002185752534741035</v>
+        <v>0.00221253697131129</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01036066771302066</v>
+        <v>0.01046467312420172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01833727021094829</v>
+        <v>0.01763890044265312</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06587976911761752</v>
+        <v>0.06569501335533066</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01022257165798559</v>
+        <v>0.01040197136652323</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03894726776553352</v>
+        <v>0.03978758296043072</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01988740630014094</v>
+        <v>0.01980071969179469</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03540006262441464</v>
+        <v>0.03523329941497134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06829307551559978</v>
+        <v>0.06282468185089375</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1111973041764707</v>
+        <v>0.1099930877889327</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03341966753330752</v>
+        <v>0.03339557168712366</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06431194070869264</v>
+        <v>0.06469867358393155</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.01881055918984928</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08732398298802929</v>
+        <v>0.08732398298802928</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01017129939807824</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001681855841413297</v>
+        <v>0.001666226795245928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00342848001367021</v>
+        <v>0.003525026048054409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007309679423807665</v>
+        <v>0.007503534608804706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05786003824541192</v>
+        <v>0.05943423924495323</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004615445559377058</v>
+        <v>0.004709410823062856</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02267010057457616</v>
+        <v>0.02229187896957149</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01779140001120459</v>
+        <v>0.01642274193608141</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02386223540955617</v>
+        <v>0.02398107558407187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04192660651193487</v>
+        <v>0.04184102780873283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.123933643470488</v>
+        <v>0.1256567942927111</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01823851093023562</v>
+        <v>0.01822077898998199</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0462057787667267</v>
+        <v>0.04565977736505454</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.0008335103254870223</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01386247834361036</v>
+        <v>0.01386247834361035</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.04204098259384865</v>
@@ -870,7 +870,7 @@
         <v>0.01723926498016319</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.04616625493660934</v>
+        <v>0.04616625493660935</v>
       </c>
     </row>
     <row r="14">
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008230998198556286</v>
+        <v>0.008135529360246732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0291009424174489</v>
+        <v>0.02952199653202526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07378639038409857</v>
+        <v>0.07488877493175457</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01210000849327287</v>
+        <v>0.01182742166298706</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03930619742705146</v>
+        <v>0.03879076634821102</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.004186282521011786</v>
+        <v>0.004183033271829939</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.021907079499722</v>
+        <v>0.02190602359738475</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05809610803332366</v>
+        <v>0.05920935651914243</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.105366325314173</v>
+        <v>0.1072986222068344</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02477559394258355</v>
+        <v>0.02427780351735533</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0552808193842572</v>
+        <v>0.05480414838987687</v>
       </c>
     </row>
     <row r="16">
@@ -966,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01364892984504642</v>
+        <v>0.01311234192010692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02580947530116103</v>
+        <v>0.02578987368198929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08331523714684461</v>
+        <v>0.08399043536445776</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01679486036666441</v>
+        <v>0.01677558690017505</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05862878687538364</v>
+        <v>0.05774593823788449</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0136767900087698</v>
+        <v>0.0131360374389311</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04025335125440014</v>
+        <v>0.04123970937849292</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05324798247776409</v>
+        <v>0.05516131944528328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1182867512369884</v>
+        <v>0.11831737292545</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0352942933812542</v>
+        <v>0.0346934425096239</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0816040965995978</v>
+        <v>0.08141814017276403</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.02629648679615134</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.06034989401389115</v>
+        <v>0.06034989401389119</v>
       </c>
     </row>
     <row r="20">
@@ -1049,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02242359736377685</v>
+        <v>0.02250613630533601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05943081533111862</v>
+        <v>0.05986680782448932</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0179873648124468</v>
+        <v>0.01771363701481821</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04822604201497246</v>
+        <v>0.04745398504724724</v>
       </c>
     </row>
     <row r="21">
@@ -1070,19 +1070,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.06578364221562899</v>
+        <v>0.07258223172261069</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04427593789739915</v>
+        <v>0.04593352076095784</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09241498890695833</v>
+        <v>0.09150635987160118</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0364593152113032</v>
+        <v>0.03675562212796108</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07811393791505625</v>
+        <v>0.0752218373245679</v>
       </c>
     </row>
     <row r="22">
@@ -1112,7 +1112,7 @@
         <v>0.01975994175394922</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.053377692690731</v>
+        <v>0.05337769269073101</v>
       </c>
     </row>
     <row r="23">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001746450235875478</v>
+        <v>0.001727745536368627</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01293672295785974</v>
+        <v>0.01279795797389719</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02965193704118544</v>
+        <v>0.02941042241420632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08062238927997675</v>
+        <v>0.08027774874700026</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01660089602748514</v>
+        <v>0.01650394588046786</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04887434112492793</v>
+        <v>0.04858598598303251</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.005704390154290347</v>
+        <v>0.005548127047315483</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02185243619942519</v>
+        <v>0.02177127863879409</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04203302299616761</v>
+        <v>0.04243135099361031</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09664636944431283</v>
+        <v>0.09637386057165399</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02345557403884016</v>
+        <v>0.02357716688634536</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05783491948842257</v>
+        <v>0.05771573894434839</v>
       </c>
     </row>
     <row r="25">
@@ -1356,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5687</v>
+        <v>5620</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6292</v>
+        <v>6297</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35272</v>
+        <v>34412</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7072</v>
+        <v>7209</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44628</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="7">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5375</v>
+        <v>6841</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19574</v>
+        <v>19766</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22482</v>
+        <v>23890</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>57986</v>
+        <v>58288</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22330</v>
+        <v>23944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71851</v>
+        <v>71779</v>
       </c>
     </row>
     <row r="8">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5006</v>
+        <v>5057</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6198</v>
+        <v>5962</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27780</v>
+        <v>27702</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7737</v>
+        <v>7872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>35243</v>
+        <v>36004</v>
       </c>
     </row>
     <row r="11">
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8329</v>
+        <v>8292</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17106</v>
+        <v>17025</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23084</v>
+        <v>21235</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46890</v>
+        <v>46382</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25292</v>
+        <v>25274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58195</v>
+        <v>58545</v>
       </c>
     </row>
     <row r="12">
@@ -1569,22 +1569,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1610</v>
+        <v>1656</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1901</v>
+        <v>1952</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10849</v>
+        <v>11144</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4106</v>
+        <v>4189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14897</v>
+        <v>14649</v>
       </c>
     </row>
     <row r="15">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11198</v>
+        <v>10337</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11207</v>
+        <v>11263</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10906</v>
+        <v>10884</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23237</v>
+        <v>23560</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16224</v>
+        <v>16208</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30364</v>
+        <v>30005</v>
       </c>
     </row>
     <row r="16">
@@ -1680,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9316</v>
+        <v>9208</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22310</v>
+        <v>22633</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>63518</v>
+        <v>64467</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23301</v>
+        <v>22776</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>78325</v>
+        <v>77297</v>
       </c>
     </row>
     <row r="19">
@@ -1703,22 +1703,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4852</v>
+        <v>4848</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24795</v>
+        <v>24794</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44540</v>
+        <v>45393</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90703</v>
+        <v>92366</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47710</v>
+        <v>46751</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>110157</v>
+        <v>109207</v>
       </c>
     </row>
     <row r="20">
@@ -1788,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7739</v>
+        <v>7434</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19654</v>
+        <v>19640</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>69103</v>
+        <v>69663</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21365</v>
+        <v>21341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>81869</v>
+        <v>80636</v>
       </c>
     </row>
     <row r="23">
@@ -1811,22 +1811,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6983</v>
+        <v>6707</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22823</v>
+        <v>23382</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40550</v>
+        <v>42007</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>98109</v>
+        <v>98135</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>44899</v>
+        <v>44134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>113952</v>
+        <v>113692</v>
       </c>
     </row>
     <row r="24">
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>24876</v>
+        <v>24967</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>50093</v>
+        <v>50460</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24755</v>
+        <v>24378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>52089</v>
+        <v>51255</v>
       </c>
     </row>
     <row r="27">
@@ -1918,19 +1918,19 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>15606</v>
+        <v>17219</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>49118</v>
+        <v>50956</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>77894</v>
+        <v>77128</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>50177</v>
+        <v>50584</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>84371</v>
+        <v>81247</v>
       </c>
     </row>
     <row r="28">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5976</v>
+        <v>5912</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>44496</v>
+        <v>44019</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>105268</v>
+        <v>104411</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>292660</v>
+        <v>291409</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>115742</v>
+        <v>115066</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>345519</v>
+        <v>343480</v>
       </c>
     </row>
     <row r="31">
@@ -2023,22 +2023,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19520</v>
+        <v>18985</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>75162</v>
+        <v>74883</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>149222</v>
+        <v>150637</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>350827</v>
+        <v>349838</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>163533</v>
+        <v>164381</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>408866</v>
+        <v>408023</v>
       </c>
     </row>
     <row r="32">
